--- a/data_year/zb/人民生活/全国居民人均支出情况.xlsx
+++ b/data_year/zb/人民生活/全国居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1354 +538,858 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211</v>
+        <v>1130</v>
       </c>
       <c r="C2" t="n">
-        <v>62.7</v>
+        <v>18.5</v>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.2</v>
+        <v>6.6</v>
       </c>
       <c r="F2" t="n">
-        <v>173</v>
+        <v>625</v>
       </c>
       <c r="G2" t="n">
-        <v>-29.3</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>419</v>
+        <v>1928</v>
       </c>
       <c r="I2" t="n">
-        <v>25.3</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>64</v>
+        <v>11.6</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>2914</v>
+        <v>9378</v>
       </c>
       <c r="O2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="P2" t="n">
-        <v>184</v>
+        <v>569</v>
       </c>
       <c r="Q2" t="n">
-        <v>-3.9</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
-        <v>238</v>
+        <v>759</v>
       </c>
       <c r="S2" t="n">
-        <v>5.6</v>
+        <v>13.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1231</v>
+        <v>3137</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237</v>
+        <v>1259</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="E3" t="n">
-        <v>44.9</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>193</v>
+        <v>744</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>448</v>
+        <v>2199</v>
       </c>
       <c r="I3" t="n">
-        <v>6.9</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>1136</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>13.6</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3139</v>
+        <v>10820</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P3" t="n">
-        <v>214</v>
+        <v>675</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.3</v>
+        <v>18.6</v>
       </c>
       <c r="R3" t="n">
-        <v>256</v>
+        <v>903</v>
       </c>
       <c r="S3" t="n">
-        <v>7.8</v>
+        <v>18.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1270</v>
+        <v>3633</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315</v>
+        <v>1451</v>
       </c>
       <c r="C4" t="n">
-        <v>32.9</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.2</v>
+        <v>12.9</v>
       </c>
       <c r="F4" t="n">
-        <v>237</v>
+        <v>838</v>
       </c>
       <c r="G4" t="n">
-        <v>22.4</v>
+        <v>12.7</v>
       </c>
       <c r="H4" t="n">
-        <v>527</v>
+        <v>2480</v>
       </c>
       <c r="I4" t="n">
-        <v>17.7</v>
+        <v>12.8</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>1262</v>
       </c>
       <c r="K4" t="n">
-        <v>25.9</v>
+        <v>11.1</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>3548</v>
+        <v>12054</v>
       </c>
       <c r="O4" t="n">
-        <v>13.9</v>
+        <v>8.6</v>
       </c>
       <c r="P4" t="n">
-        <v>202</v>
+        <v>741</v>
       </c>
       <c r="Q4" t="n">
-        <v>-5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>285</v>
+        <v>992</v>
       </c>
       <c r="S4" t="n">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1391</v>
+        <v>3983</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>1627</v>
       </c>
       <c r="C5" t="n">
-        <v>19.7</v>
+        <v>12.2</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.4</v>
+        <v>5.6</v>
       </c>
       <c r="F5" t="n">
-        <v>268</v>
+        <v>912</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>606</v>
+        <v>2999</v>
       </c>
       <c r="I5" t="n">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
       <c r="J5" t="n">
-        <v>527</v>
+        <v>1398</v>
       </c>
       <c r="K5" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5246</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>3889</v>
+        <v>13220</v>
       </c>
       <c r="O5" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="P5" t="n">
-        <v>215</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>310</v>
+        <v>1027</v>
       </c>
       <c r="S5" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1483</v>
+        <v>4127</v>
       </c>
       <c r="U5" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450</v>
+        <v>1869</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1</v>
+        <v>14.9</v>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="F6" t="n">
-        <v>305</v>
+        <v>1045</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>674</v>
+        <v>3201</v>
       </c>
       <c r="I6" t="n">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="J6" t="n">
-        <v>586</v>
+        <v>1536</v>
       </c>
       <c r="K6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>9.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5842</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.4</v>
+      </c>
       <c r="N6" t="n">
-        <v>4395</v>
+        <v>14491</v>
       </c>
       <c r="O6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="P6" t="n">
-        <v>224</v>
+        <v>890</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.8</v>
+        <v>10.3</v>
       </c>
       <c r="R6" t="n">
-        <v>339</v>
+        <v>1099</v>
       </c>
       <c r="S6" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>1704</v>
+        <v>4494</v>
       </c>
       <c r="U6" t="n">
-        <v>14.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>547</v>
+        <v>2086.8770402479</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8</v>
+        <v>11.6</v>
       </c>
       <c r="D7" t="n">
-        <v>131</v>
+        <v>389.1696558326</v>
       </c>
       <c r="E7" t="n">
-        <v>14.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>366</v>
+        <v>1164.5451080237</v>
       </c>
       <c r="G7" t="n">
-        <v>19.8</v>
+        <v>11.5</v>
       </c>
       <c r="H7" t="n">
-        <v>796</v>
+        <v>3419.2312932161</v>
       </c>
       <c r="I7" t="n">
-        <v>18.1</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>1723.1063678991</v>
       </c>
       <c r="K7" t="n">
         <v>12.2</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>6460</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.6</v>
+      </c>
       <c r="N7" t="n">
-        <v>5035</v>
+        <v>15712.4073973362</v>
       </c>
       <c r="O7" t="n">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="P7" t="n">
-        <v>258</v>
+        <v>951.3605993846001</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.2</v>
+        <v>6.9</v>
       </c>
       <c r="R7" t="n">
-        <v>404</v>
+        <v>1164.0908702471</v>
       </c>
       <c r="S7" t="n">
-        <v>19.1</v>
+        <v>5.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1877</v>
+        <v>4814.0264624853</v>
       </c>
       <c r="U7" t="n">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>640</v>
+        <v>2337.833872</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>146</v>
+        <v>406.327222</v>
       </c>
       <c r="E8" t="n">
-        <v>12.1</v>
+        <v>4.4</v>
       </c>
       <c r="F8" t="n">
-        <v>395</v>
+        <v>1307.452014</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>12.3</v>
       </c>
       <c r="H8" t="n">
-        <v>980</v>
+        <v>3746.414853</v>
       </c>
       <c r="I8" t="n">
-        <v>23.1</v>
+        <v>9.6</v>
       </c>
       <c r="J8" t="n">
-        <v>718</v>
+        <v>1915.261429</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7156.568874</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.8</v>
+      </c>
       <c r="N8" t="n">
-        <v>5634</v>
+        <v>17110.74622</v>
       </c>
       <c r="O8" t="n">
-        <v>10.2</v>
+        <v>6.8</v>
       </c>
       <c r="P8" t="n">
-        <v>293</v>
+        <v>1043.743985</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>459</v>
+        <v>1202.727698</v>
       </c>
       <c r="S8" t="n">
-        <v>13.7</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2002</v>
+        <v>5150.980705</v>
       </c>
       <c r="U8" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>762</v>
+        <v>2498.9403624138</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>6.9</v>
       </c>
       <c r="D9" t="n">
-        <v>170</v>
+        <v>446.9994342273</v>
       </c>
       <c r="E9" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>452</v>
+        <v>1451.2125498635</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>1176</v>
+        <v>4106.8738642193</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>787</v>
+        <v>2086.2403769727</v>
       </c>
       <c r="K9" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>8.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7802.5705478377</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
       <c r="N9" t="n">
-        <v>6592</v>
+        <v>18322.1481280722</v>
       </c>
       <c r="O9" t="n">
-        <v>11.6</v>
+        <v>5.4</v>
       </c>
       <c r="P9" t="n">
-        <v>359</v>
+        <v>1120.6506080339</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.6</v>
+        <v>7.4</v>
       </c>
       <c r="R9" t="n">
-        <v>539</v>
+        <v>1237.6481079991</v>
       </c>
       <c r="S9" t="n">
-        <v>17.2</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2346</v>
+        <v>5373.5828243425</v>
       </c>
       <c r="U9" t="n">
-        <v>17.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>808</v>
+        <v>2675.4156634088</v>
       </c>
       <c r="C10" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="n">
-        <v>193</v>
+        <v>477.4977924146</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="F10" t="n">
-        <v>519</v>
+        <v>1685.199843985</v>
       </c>
       <c r="G10" t="n">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1454</v>
+        <v>4646.5940376593</v>
       </c>
       <c r="I10" t="n">
-        <v>23.6</v>
+        <v>13.1</v>
       </c>
       <c r="J10" t="n">
-        <v>814</v>
+        <v>2225.7264909269</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8780.7896183413</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12.5</v>
+      </c>
       <c r="N10" t="n">
-        <v>7548</v>
+        <v>19853.1354741892</v>
       </c>
       <c r="O10" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="P10" t="n">
-        <v>418</v>
+        <v>1222.6827968608</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.3</v>
+        <v>9.1</v>
       </c>
       <c r="R10" t="n">
-        <v>601</v>
+        <v>1288.9357926225</v>
       </c>
       <c r="S10" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2741</v>
+        <v>5631.0830563113</v>
       </c>
       <c r="U10" t="n">
-        <v>16.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953</v>
+        <v>2861.5718790484</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>216</v>
+        <v>523.9734511562</v>
       </c>
       <c r="E11" t="n">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>586</v>
+        <v>1902.250614381</v>
       </c>
       <c r="G11" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1698</v>
+        <v>5054.8035622181</v>
       </c>
       <c r="I11" t="n">
-        <v>16.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>896</v>
+        <v>2513.0763885263</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>12.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9885.982144598</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12.6</v>
+      </c>
       <c r="N11" t="n">
-        <v>8377</v>
+        <v>21558.8526534938</v>
       </c>
       <c r="O11" t="n">
-        <v>11.8</v>
+        <v>5.5</v>
       </c>
       <c r="P11" t="n">
-        <v>486</v>
+        <v>1280.8538158172</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.3</v>
+        <v>4.8</v>
       </c>
       <c r="R11" t="n">
-        <v>666</v>
+        <v>1338.1461701449</v>
       </c>
       <c r="S11" t="n">
-        <v>10.9</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2875</v>
+        <v>6084.1767722017</v>
       </c>
       <c r="U11" t="n">
-        <v>4.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1130</v>
+        <v>2761.83425184569</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>462.228842425835</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6</v>
+        <v>-11.8</v>
       </c>
       <c r="F12" t="n">
-        <v>625</v>
+        <v>1843.07481428575</v>
       </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>-3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1928</v>
+        <v>5215.34185083265</v>
       </c>
       <c r="I12" t="n">
-        <v>13.5</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>2032.22255559085</v>
       </c>
       <c r="K12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>-19.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9037.33491413135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-8.6</v>
+      </c>
       <c r="N12" t="n">
-        <v>9378</v>
+        <v>21209.8762442457</v>
       </c>
       <c r="O12" t="n">
-        <v>8.4</v>
+        <v>-4</v>
       </c>
       <c r="P12" t="n">
-        <v>569</v>
+        <v>1259.51001180794</v>
       </c>
       <c r="Q12" t="n">
-        <v>17</v>
+        <v>-1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>759</v>
+        <v>1238.37968589944</v>
       </c>
       <c r="S12" t="n">
-        <v>13.9</v>
+        <v>-7.5</v>
       </c>
       <c r="T12" t="n">
-        <v>3137</v>
+        <v>6397.28423155759</v>
       </c>
       <c r="U12" t="n">
-        <v>9.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1259</v>
+        <v>3155.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>14.2566755369614</v>
       </c>
       <c r="D13" t="n">
-        <v>272</v>
+        <v>569.4</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>23.1943893876261</v>
       </c>
       <c r="F13" t="n">
-        <v>744</v>
+        <v>2115.1</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>14.7620261318412</v>
       </c>
       <c r="H13" t="n">
-        <v>2199</v>
+        <v>5641.1</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>8.16261256391817</v>
       </c>
       <c r="J13" t="n">
-        <v>1136</v>
+        <v>2598.9</v>
       </c>
       <c r="K13" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>27.8865837233258</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10644.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17.8</v>
+      </c>
       <c r="N13" t="n">
-        <v>10820</v>
+        <v>24100.1</v>
       </c>
       <c r="O13" t="n">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="P13" t="n">
-        <v>675</v>
+        <v>1423.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.6</v>
+        <v>12.9947349888171</v>
       </c>
       <c r="R13" t="n">
-        <v>903</v>
+        <v>1418.7</v>
       </c>
       <c r="S13" t="n">
-        <v>18.9</v>
+        <v>14.5585652085054</v>
       </c>
       <c r="T13" t="n">
-        <v>3633</v>
+        <v>7178.1</v>
       </c>
       <c r="U13" t="n">
-        <v>15.8</v>
+        <v>12.2051129851442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1451</v>
+        <v>3194.8236639304</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3</v>
+        <v>1.243627603496</v>
       </c>
       <c r="D14" t="n">
-        <v>307</v>
+        <v>595.367507053119</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9</v>
+        <v>4.5531587266646</v>
       </c>
       <c r="F14" t="n">
-        <v>838</v>
+        <v>2119.87265537765</v>
       </c>
       <c r="G14" t="n">
-        <v>12.7</v>
+        <v>0.223277563182494</v>
       </c>
       <c r="H14" t="n">
-        <v>2480</v>
+        <v>5882.04108215882</v>
       </c>
       <c r="I14" t="n">
-        <v>12.8</v>
+        <v>4.27209619058196</v>
       </c>
       <c r="J14" t="n">
-        <v>1262</v>
+        <v>2468.66132312048</v>
       </c>
       <c r="K14" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>-5.01276200602999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10589.9587476375</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.512482513168421</v>
+      </c>
       <c r="N14" t="n">
-        <v>12054</v>
+        <v>24538.2241880172</v>
       </c>
       <c r="O14" t="n">
-        <v>8.6</v>
+        <v>-0.196078431372541</v>
       </c>
       <c r="P14" t="n">
-        <v>741</v>
+        <v>1431.82198706522</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.800000000000001</v>
+        <v>0.60723078354227</v>
       </c>
       <c r="R14" t="n">
-        <v>992</v>
+        <v>1364.59623022567</v>
       </c>
       <c r="S14" t="n">
-        <v>9.9</v>
+        <v>-3.81158195875926</v>
       </c>
       <c r="T14" t="n">
-        <v>3983</v>
+        <v>7481.03973908581</v>
       </c>
       <c r="U14" t="n">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1627</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>325</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>912</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1398</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5246</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>13220</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="P15" t="n">
-        <v>806</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1027</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4127</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1869</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>358</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1045</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3201</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1536</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5842</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14491</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>890</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1099</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4494</v>
-      </c>
-      <c r="U16" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2087</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>389</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1165</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3419</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1723</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6460</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15712</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="P17" t="n">
-        <v>951</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1164</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4814</v>
-      </c>
-      <c r="U17" t="n">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2338</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>406</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1307</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3746</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1915</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7157</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17111</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1044</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1203</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>5151</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2499</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>447</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1451</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4107</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2086</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7803</v>
-      </c>
-      <c r="M19" t="n">
-        <v>9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>18322</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1121</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1238</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>5374</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2675</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>477</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1685</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4647</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2226</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8781</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19853</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1223</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1289</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5631</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2862</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>524</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1902</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5055</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2513</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9886</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>21559</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1281</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1338</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T21" t="n">
-        <v>6084</v>
-      </c>
-      <c r="U21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2762</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>462</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1843</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5215</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2032</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9037</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-8.6</v>
-      </c>
-      <c r="N22" t="n">
-        <v>21210</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1260</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1238</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>6397</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5.1</v>
+        <v>4.2206236080652</v>
       </c>
     </row>
   </sheetData>
